--- a/figures and tables/2022 Tables/TableS_OOS_gof_formatted.xlsx
+++ b/figures and tables/2022 Tables/TableS_OOS_gof_formatted.xlsx
@@ -5,21 +5,23 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jblaszczak\Documents\GitHub\RiverBiomass\figures and tables\2022 Figures and Tables\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jblaszczak\Documents\GitHub\RiverBiomass\figures and tables\2022 Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17230" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TableS_OOS_gof" sheetId="1" r:id="rId1"/>
+    <sheet name="Reduced" sheetId="3" r:id="rId2"/>
+    <sheet name="Adjusted" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="19">
   <si>
     <t>S-TS</t>
   </si>
@@ -70,6 +72,12 @@
   </si>
   <si>
     <t>NRMSE</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>RMSE</t>
   </si>
 </sst>
 </file>
@@ -554,7 +562,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -572,6 +580,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -898,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -913,26 +924,26 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5" t="s">
+      <c r="I1" s="7"/>
+      <c r="J1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="5"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -1184,7 +1195,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="6">
-        <f t="shared" ref="B10:E10" si="0">AVERAGE(B3:B8)</f>
+        <f t="shared" ref="B10:D10" si="0">AVERAGE(B3:B8)</f>
         <v>2.1795198828515265</v>
       </c>
       <c r="C10" s="6">
@@ -1404,4 +1415,845 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="5"/>
+      <c r="B1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6">
+        <v>3.3417383243704601</v>
+      </c>
+      <c r="C3" s="6">
+        <v>3.4333387307687002</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.22478478585283099</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.23094636277406999</v>
+      </c>
+      <c r="F3" s="2">
+        <v>63.905325443787</v>
+      </c>
+      <c r="G3" s="2">
+        <v>69.526627218934905</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1.1180404517792999</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.75129118862183897</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.22766261125606599</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.152982759741045</v>
+      </c>
+      <c r="F4" s="2">
+        <v>90.822784810126606</v>
+      </c>
+      <c r="G4" s="2">
+        <v>89.240506329113899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1.1915197558550701</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1.1139766778684601</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.18653001002950301</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.174390797864967</v>
+      </c>
+      <c r="F5" s="2">
+        <v>76.160990712074295</v>
+      </c>
+      <c r="G5" s="2">
+        <v>94.117647058823493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1.11699915242334</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1.02498398861837</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.311667980841285</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.28599367281011301</v>
+      </c>
+      <c r="F6" s="2">
+        <v>86.416184971098303</v>
+      </c>
+      <c r="G6" s="2">
+        <v>93.930635838150295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="6">
+        <v>4.1589269306042196</v>
+      </c>
+      <c r="C7" s="6">
+        <v>3.5121738846041399</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.26893364571336098</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.227111883167571</v>
+      </c>
+      <c r="F7" s="2">
+        <v>96.735905044510403</v>
+      </c>
+      <c r="G7" s="2">
+        <v>89.317507418397597</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2.1498946820767699</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1.84385684523717</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.22766871045582099</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.195260034698433</v>
+      </c>
+      <c r="F8" s="2">
+        <v>80.141843971631204</v>
+      </c>
+      <c r="G8" s="2">
+        <v>85.106382978723403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="6">
+        <f t="shared" ref="B10:D10" si="0">AVERAGE(B3:B8)</f>
+        <v>2.1795198828515265</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="0"/>
+        <v>1.9466035526197798</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
+        <v>0.24120795735814451</v>
+      </c>
+      <c r="E10" s="6">
+        <f>AVERAGE(E3:E8)</f>
+        <v>0.21111425184269983</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" ref="F10:G10" si="1">AVERAGE(F3:F8)</f>
+        <v>82.363839158871301</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="1"/>
+        <v>86.873217807023934</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="6">
+        <f t="shared" ref="B11:E11" si="2">MIN(B3:B8)</f>
+        <v>1.11699915242334</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" si="2"/>
+        <v>0.75129118862183897</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="2"/>
+        <v>0.18653001002950301</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="2"/>
+        <v>0.152982759741045</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" ref="F11:G11" si="3">MIN(F3:F8)</f>
+        <v>63.905325443787</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="3"/>
+        <v>69.526627218934905</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="6">
+        <f t="shared" ref="B12:E12" si="4">MAX(B3:B8)</f>
+        <v>4.1589269306042196</v>
+      </c>
+      <c r="C12" s="6">
+        <f t="shared" si="4"/>
+        <v>3.5121738846041399</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="4"/>
+        <v>0.311667980841285</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="4"/>
+        <v>0.28599367281011301</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" ref="F12:G12" si="5">MAX(F3:F8)</f>
+        <v>96.735905044510403</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="5"/>
+        <v>94.117647058823493</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="7"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <v>3.3417383243704601</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6">
+        <v>0.22478478585283099</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.23094636277406999</v>
+      </c>
+      <c r="H3" s="2">
+        <v>171.099145032536</v>
+      </c>
+      <c r="I3" s="2">
+        <v>160.483151399306</v>
+      </c>
+      <c r="J3" s="2">
+        <v>320.54747966311601</v>
+      </c>
+      <c r="K3" s="2">
+        <v>278.61831903531998</v>
+      </c>
+      <c r="L3" s="2">
+        <v>63.905325443787</v>
+      </c>
+      <c r="M3" s="2">
+        <v>69.526627218934905</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>3.4333387307687002</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6">
+        <v>0.22766261125606599</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.152982759741045</v>
+      </c>
+      <c r="H4" s="2">
+        <v>138.46492015618199</v>
+      </c>
+      <c r="I4" s="2">
+        <v>91.6095639560438</v>
+      </c>
+      <c r="J4" s="2">
+        <v>592.36314779893098</v>
+      </c>
+      <c r="K4" s="2">
+        <v>363.24280371875699</v>
+      </c>
+      <c r="L4" s="2">
+        <v>90.822784810126606</v>
+      </c>
+      <c r="M4" s="2">
+        <v>89.240506329113899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1.1180404517792999</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6">
+        <v>0.18653001002950301</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.174390797864967</v>
+      </c>
+      <c r="H5" s="2">
+        <v>46.822787952059898</v>
+      </c>
+      <c r="I5" s="2">
+        <v>40.129563112785597</v>
+      </c>
+      <c r="J5" s="2">
+        <v>188.25033555543601</v>
+      </c>
+      <c r="K5" s="2">
+        <v>168.27278080352301</v>
+      </c>
+      <c r="L5" s="2">
+        <v>76.160990712074295</v>
+      </c>
+      <c r="M5" s="2">
+        <v>94.117647058823493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.75129118862183897</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6">
+        <v>0.311667980841285</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.28599367281011301</v>
+      </c>
+      <c r="H6" s="2">
+        <v>18.768822834911301</v>
+      </c>
+      <c r="I6" s="2">
+        <v>27.926935394958299</v>
+      </c>
+      <c r="J6" s="2">
+        <v>80.636945095171399</v>
+      </c>
+      <c r="K6" s="2">
+        <v>75.063751039532406</v>
+      </c>
+      <c r="L6" s="2">
+        <v>86.416184971098303</v>
+      </c>
+      <c r="M6" s="2">
+        <v>93.930635838150295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1.1915197558550701</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6">
+        <v>0.26893364571336098</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.227111883167571</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5.6170952226388904</v>
+      </c>
+      <c r="I7" s="2">
+        <v>3.9118495687481101</v>
+      </c>
+      <c r="J7" s="2">
+        <v>26.769032272642601</v>
+      </c>
+      <c r="K7" s="2">
+        <v>6.87394562816639</v>
+      </c>
+      <c r="L7" s="2">
+        <v>96.735905044510403</v>
+      </c>
+      <c r="M7" s="2">
+        <v>89.317507418397597</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1.1139766778684601</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6">
+        <v>0.22766871045582099</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.195260034698433</v>
+      </c>
+      <c r="H8" s="2">
+        <v>696.31626523717398</v>
+      </c>
+      <c r="I8" s="2">
+        <v>855.94573143292996</v>
+      </c>
+      <c r="J8" s="2">
+        <v>573.18271658412095</v>
+      </c>
+      <c r="K8" s="2">
+        <v>690.34773169165703</v>
+      </c>
+      <c r="L8" s="2">
+        <v>80.141843971631204</v>
+      </c>
+      <c r="M8" s="2">
+        <v>85.106382978723403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1.11699915242334</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1.02498398861837</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6">
+        <f t="shared" ref="F10" si="0">AVERAGE(F3:F8)</f>
+        <v>0.24120795735814451</v>
+      </c>
+      <c r="G10" s="6">
+        <f>AVERAGE(G3:G8)</f>
+        <v>0.21111425184269983</v>
+      </c>
+      <c r="H10" s="4">
+        <f>AVERAGE(H3:H8)</f>
+        <v>179.514839405917</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" ref="I10:M10" si="1">AVERAGE(I3:I8)</f>
+        <v>196.66779914412862</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="1"/>
+        <v>296.95827616156964</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>263.73655531949265</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="1"/>
+        <v>82.363839158871301</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="shared" si="1"/>
+        <v>86.873217807023934</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="6">
+        <v>4.1589269306042196</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6">
+        <f t="shared" ref="F11:G11" si="2">MIN(F3:F8)</f>
+        <v>0.18653001002950301</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="2"/>
+        <v>0.152982759741045</v>
+      </c>
+      <c r="H11" s="4">
+        <f>MIN(H3:H8)</f>
+        <v>5.6170952226388904</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" ref="I11:M11" si="3">MIN(I3:I8)</f>
+        <v>3.9118495687481101</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="3"/>
+        <v>26.769032272642601</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="3"/>
+        <v>6.87394562816639</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="shared" si="3"/>
+        <v>63.905325443787</v>
+      </c>
+      <c r="M11" s="4">
+        <f t="shared" si="3"/>
+        <v>69.526627218934905</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6">
+        <v>3.5121738846041399</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6">
+        <f t="shared" ref="F12:G12" si="4">MAX(F3:F8)</f>
+        <v>0.311667980841285</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="4"/>
+        <v>0.28599367281011301</v>
+      </c>
+      <c r="H12" s="4">
+        <f>MAX(H3:H8)</f>
+        <v>696.31626523717398</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" ref="I12:M12" si="5">MAX(I3:I8)</f>
+        <v>855.94573143292996</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="5"/>
+        <v>592.36314779893098</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="5"/>
+        <v>690.34773169165703</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="5"/>
+        <v>96.735905044510403</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" si="5"/>
+        <v>94.117647058823493</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6">
+        <v>2.1498946820767699</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1.84385684523717</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6">
+        <v>2.1795198828515265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1.9466035526197798</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1.11699915242334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.75129118862183897</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6">
+        <v>4.1589269306042196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6">
+        <v>3.5121738846041399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E26" s="6">
+        <v>2.1795198828515265</v>
+      </c>
+      <c r="F26" s="6">
+        <v>1.9466035526197798</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E27" s="6">
+        <v>1.11699915242334</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.75129118862183897</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E28" s="6">
+        <v>4.1589269306042196</v>
+      </c>
+      <c r="F28" s="6">
+        <v>3.5121738846041399</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>